--- a/data/trans_dic/P25C$smedicoempresa_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P25C$smedicoempresa_2023-Clase-trans_dic.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.004778261550592441</v>
+        <v>0.00477826155059244</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.005601599384048017</v>
+        <v>0.005601599384048014</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.005063998148816547</v>
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02439543986692658</v>
+        <v>0.02357787172309357</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03207508100701285</v>
+        <v>0.03151783879818951</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0200522423012753</v>
+        <v>0.01683066165929121</v>
       </c>
     </row>
     <row r="7">
@@ -651,11 +651,11 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0574013240712597</v>
+        <v>0.05166471194559828</v>
       </c>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="n">
-        <v>0.03426426130810849</v>
+        <v>0.0341091836525781</v>
       </c>
     </row>
     <row r="10">
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.006062263845448145</v>
+        <v>0.006062263845448144</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0</v>
@@ -788,11 +788,11 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03497958729695105</v>
+        <v>0.0324126852930038</v>
       </c>
       <c r="D18" s="5" t="inlineStr"/>
       <c r="E18" s="5" t="n">
-        <v>0.01663570101576278</v>
+        <v>0.01672113570729182</v>
       </c>
     </row>
     <row r="19">
@@ -867,13 +867,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.0008833620063647401</v>
+        <v>0.0008859083075457656</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.000764992132168004</v>
+        <v>0.0009383002087351854</v>
       </c>
     </row>
     <row r="24">
@@ -884,13 +884,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01033798740988144</v>
+        <v>0.01043390882680613</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.004445109283208191</v>
+        <v>0.00606158441219157</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.007182877943893571</v>
+        <v>0.007152486159611163</v>
       </c>
     </row>
     <row r="25">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>3187</v>
+        <v>3080</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>2227</v>
+        <v>2188</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>4011</v>
+        <v>3367</v>
       </c>
     </row>
     <row r="8">
@@ -1121,11 +1121,11 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5875</v>
+        <v>5288</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="n">
-        <v>5660</v>
+        <v>5634</v>
       </c>
     </row>
     <row r="12">
@@ -1309,11 +1309,11 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>3296</v>
+        <v>3055</v>
       </c>
       <c r="D23" s="6" t="inlineStr"/>
       <c r="E23" s="6" t="n">
-        <v>2895</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="24">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>771</v>
+        <v>946</v>
       </c>
     </row>
     <row r="31">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>6718</v>
+        <v>6780</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>1592</v>
+        <v>2170</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>7239</v>
+        <v>7208</v>
       </c>
     </row>
     <row r="32">
